--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.91667247051367</v>
+        <v>15.91667247051412</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.39535061101017</v>
+        <v>24.39535061104201</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.86144490497647</v>
+        <v>27.86144490502469</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.9923312207404</v>
+        <v>17.99233122071144</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.11393827984491</v>
+        <v>21.1139382798465</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.36724592505565</v>
+        <v>24.36724592505464</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.84651339400593</v>
+        <v>32.84651339403685</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.31292157896919</v>
+        <v>36.31292157896282</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.44330730975467</v>
+        <v>26.44330730977969</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.56681558549226</v>
+        <v>29.56681558545635</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.86331133518301</v>
+        <v>27.86331133514732</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.34266475511469</v>
+        <v>36.34266475506819</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>39.80918019685998</v>
+        <v>39.80918019685168</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.939416884752</v>
+        <v>29.93941688469211</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.06392468751336</v>
+        <v>33.06392468747118</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.08841765308122</v>
+        <v>21.0884176530578</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.56722094308636</v>
+        <v>29.5672209431082</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.03350112630917</v>
+        <v>33.03350112631919</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.16411076111728</v>
+        <v>23.16411076106375</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.28745077212874</v>
+        <v>26.2874507720959</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.60003678507042</v>
+        <v>29.60003678506497</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33.06756677009594</v>
+        <v>33.06756677009958</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.1976855163344</v>
+        <v>23.19768551631348</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.57426273687278</v>
+        <v>30.57426273685822</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39.06430813721756</v>
+        <v>39.06430813720983</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.53262974382717</v>
+        <v>42.53262974379488</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.6613085524348</v>
+        <v>32.66130855239366</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.05350345516359</v>
+        <v>38.0535034551387</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.52134737942247</v>
+        <v>41.52134737942624</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.65096548128778</v>
+        <v>31.65096548130246</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.02838728453717</v>
+        <v>39.02838728451238</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.51902208072558</v>
+        <v>47.51902208070445</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.98765764519955</v>
+        <v>50.98765764516023</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.11583577906764</v>
+        <v>41.11583577906503</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.55069845107108</v>
+        <v>41.55069845103733</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.01864964539926</v>
+        <v>45.01864964537005</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.14811868428428</v>
+        <v>35.14811868427793</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.52617148051684</v>
+        <v>42.52617148050367</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>51.01689216020515</v>
+        <v>51.01689216017343</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.48563500123402</v>
+        <v>54.48563500118912</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.6136640534962</v>
+        <v>44.61366405344256</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.77367435025251</v>
+        <v>34.77367435030175</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.24139025240645</v>
+        <v>38.24139025241113</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.37123228391678</v>
+        <v>28.37123228393873</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35.74905896156481</v>
+        <v>35.74905896159118</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44.23922943471408</v>
+        <v>44.23922943468589</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>47.70773697444785</v>
+        <v>47.70773697444057</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.83613902324399</v>
+        <v>37.83613902328994</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.49191460616007</v>
+        <v>20.49191460614858</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.97014772607705</v>
+        <v>28.97014772607013</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.43659386601772</v>
+        <v>32.43659386598852</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.56663562001122</v>
+        <v>22.56663562001315</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.68482989678365</v>
+        <v>25.68482989682082</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.94198469189602</v>
+        <v>28.94198469193331</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.42080713044029</v>
+        <v>37.42080713043246</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.88756715770946</v>
+        <v>40.88756715769754</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31.01710833991</v>
+        <v>31.01710833985623</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>34.1372037018192</v>
+        <v>34.13720370176099</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.43771903503463</v>
+        <v>32.43771903501439</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>40.91662743761831</v>
+        <v>40.91662743762834</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>44.38349471648676</v>
+        <v>44.38349471652226</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.5128868756948</v>
+        <v>34.51288687565046</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.63398171591682</v>
+        <v>37.63398171588999</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.66307017725826</v>
+        <v>25.66307017726961</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.14142847618032</v>
+        <v>34.14142847621887</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.6080604964126</v>
+        <v>37.60806049641977</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>27.73782560446742</v>
+        <v>27.7378256044539</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.85775273583469</v>
+        <v>30.8577527357949</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.17048339189186</v>
+        <v>34.17048339191825</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.6383651779004</v>
+        <v>37.63836517789587</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.76763955972512</v>
+        <v>27.76763955973751</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.14677166374739</v>
+        <v>35.14677166373864</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>43.63637192862924</v>
+        <v>43.63637192863458</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>47.10504533640923</v>
+        <v>47.10504533640593</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.23287973042476</v>
+        <v>37.2328797304334</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>42.62344655132551</v>
+        <v>42.62344655136007</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.09164227297719</v>
+        <v>46.09164227294581</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.22041602404546</v>
+        <v>36.22041602399145</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.60039268048909</v>
+        <v>43.6003926804626</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.09058233106489</v>
+        <v>52.09058233110184</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.5595696932668</v>
+        <v>55.55956969326737</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>45.68690342572929</v>
+        <v>45.68690342572952</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.12031047249294</v>
+        <v>46.1203104725266</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.58861345909983</v>
+        <v>49.5886134591103</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>39.71723816676961</v>
+        <v>39.71723816675007</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>47.09784575795154</v>
+        <v>47.09784575792812</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>55.58812130557873</v>
+        <v>55.58812130548232</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>59.05721593895907</v>
+        <v>59.05721593892269</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.18440060948603</v>
+        <v>49.18440060945705</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>39.34353133327691</v>
+        <v>39.34353133328602</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.81159902761724</v>
+        <v>42.81159902761271</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.94059672934203</v>
+        <v>32.94059672932692</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>40.32097818293054</v>
+        <v>40.32097818292178</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>48.81070355006613</v>
+        <v>48.81070355010161</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.27956288218592</v>
+        <v>52.27956288220003</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>42.40712055101012</v>
+        <v>42.40712055097203</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.22151877523974</v>
+        <v>19.22151877527873</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.69982347065527</v>
+        <v>27.69982347068653</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.16620618010258</v>
+        <v>31.16620618009838</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.29641495371791</v>
+        <v>21.29641495373713</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.41736956793788</v>
+        <v>24.41736956791468</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.67162506779504</v>
+        <v>27.67162506781188</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.15051907999106</v>
+        <v>36.1505190799929</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.61721567772549</v>
+        <v>39.61721567769731</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.74692387710322</v>
+        <v>29.74692387706151</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>32.86977958961821</v>
+        <v>32.86977958961504</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.1673812352744</v>
+        <v>31.16738123527873</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.64636120978147</v>
+        <v>39.64636120983332</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.11316506001102</v>
+        <v>43.11316506006742</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.24272423348791</v>
+        <v>33.24272423346599</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.36657941801436</v>
+        <v>36.36657941802425</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.39270613349547</v>
+        <v>24.39270613353539</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>32.87113600459114</v>
+        <v>32.87113600464811</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.33770459550241</v>
+        <v>36.33770459547889</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.46763671907035</v>
+        <v>26.46763671908457</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.59032419128609</v>
+        <v>29.59032419127291</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.90309450288878</v>
+        <v>32.90309450289141</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.37091290378867</v>
+        <v>36.37091290374992</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.50035417465136</v>
+        <v>26.50035417463283</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.87916131776625</v>
+        <v>33.87916131779388</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.36883303293524</v>
+        <v>42.36883303290556</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.83744305531371</v>
+        <v>45.83744305533906</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.96544433814008</v>
+        <v>35.96544433813246</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.35609387744378</v>
+        <v>41.35609387745469</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>44.82422621503635</v>
+        <v>44.8242262150409</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.9531668520904</v>
+        <v>34.95316685207141</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.33281855706966</v>
+        <v>42.33281855707103</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.82307965646539</v>
+        <v>50.82307965648439</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>54.29200363423349</v>
+        <v>54.29200363423885</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.41950425268009</v>
+        <v>44.41950425270647</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.85297961099852</v>
+        <v>44.85297961100583</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>48.32121921439805</v>
+        <v>48.32121921441672</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.45001080542372</v>
+        <v>38.45001080537326</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>45.83029345066969</v>
+        <v>45.83029345070846</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>54.32064044519678</v>
+        <v>54.32064044518042</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>57.78967169489636</v>
+        <v>57.78967169490502</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>47.91702324845317</v>
+        <v>47.91702324846511</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.07617422553755</v>
+        <v>38.07617422553017</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.54417853587062</v>
+        <v>41.54417853589235</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.67334312234721</v>
+        <v>31.67334312228298</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>39.05339962300338</v>
+        <v>39.05339962297746</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>47.54319643718961</v>
+        <v>47.54319643723316</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>51.01199238495426</v>
+        <v>51.01199238496006</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.13971693831414</v>
+        <v>41.13971693828925</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.64513473310188</v>
+        <v>13.64513473306732</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.12376508261523</v>
+        <v>22.12376508255611</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.58975240363916</v>
+        <v>25.58975240364325</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.72098627319478</v>
+        <v>15.7209862731518</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.84126359576839</v>
+        <v>18.84126359577181</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.09555344575072</v>
+        <v>22.09555344576618</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.57477311924672</v>
+        <v>30.57477311930857</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.04107432664237</v>
+        <v>34.04107432670057</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.17180761938209</v>
+        <v>24.17180761938777</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27.29398610393128</v>
+        <v>27.29398610398359</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.59158786838575</v>
+        <v>25.59158786839202</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.07089349239107</v>
+        <v>34.07089349239029</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>37.53730195585343</v>
+        <v>37.53730195584264</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.66788620660456</v>
+        <v>27.66788620657604</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.79106420394888</v>
+        <v>30.79106420400813</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18.81683970747955</v>
+        <v>18.81683970751025</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.29559520549039</v>
+        <v>27.29559520553223</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.76176841420649</v>
+        <v>30.76176841418967</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.89272560594923</v>
+        <v>20.8927256059556</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.01473585329307</v>
+        <v>24.01473585330125</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.32731417260882</v>
+        <v>27.32731417260188</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.79473714109897</v>
+        <v>30.79473714110431</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20.92520347075195</v>
+        <v>20.92520347071443</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.30216749281738</v>
+        <v>28.30216749284228</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.7921648936377</v>
+        <v>36.79216489365383</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.26037948105394</v>
+        <v>40.26037948105051</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.38940585467387</v>
+        <v>30.38940585468013</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.78062604091831</v>
+        <v>35.78062604088557</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.24836294413119</v>
+        <v>39.24836294413756</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.37832863704171</v>
+        <v>29.37832863702433</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.7561372324407</v>
+        <v>36.75613723244025</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.24672402461048</v>
+        <v>45.24672402461434</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.71525256533952</v>
+        <v>48.71525256533656</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.84377827193428</v>
+        <v>38.84377827191745</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>39.27779003418458</v>
+        <v>39.27779003418379</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.74563420661047</v>
+        <v>42.74563420661331</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.87545083741873</v>
+        <v>32.87545083742568</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.25389041753302</v>
+        <v>40.2538904175785</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>48.74456309257062</v>
+        <v>48.74456309257153</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>52.21319890900237</v>
+        <v>52.21319890897963</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>42.34157553493826</v>
+        <v>42.34157553492781</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.50091150222308</v>
+        <v>32.50091150226947</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.96852038652698</v>
+        <v>35.96852038657928</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.09871000342182</v>
+        <v>26.09871000343502</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.47692346977427</v>
+        <v>33.47692346978655</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.96704594245114</v>
+        <v>41.96704594251413</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.43544646154499</v>
+        <v>45.43544646157569</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.56419607769384</v>
+        <v>35.56419607770385</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.92431232587108</v>
+        <v>20.92431232589154</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.40278612949262</v>
+        <v>29.40278612957903</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.86907750469256</v>
+        <v>32.86907750468985</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.99946522828234</v>
+        <v>22.9994652282743</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.12287200442031</v>
+        <v>26.12287200443281</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.37484909642084</v>
+        <v>29.37484909643074</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37.85391222061084</v>
+        <v>37.8539122206254</v>
       </c>
     </row>
     <row r="201">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.45040462240591</v>
+        <v>31.45040462245003</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.57571256728115</v>
+        <v>34.57571256726707</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.87090895154282</v>
+        <v>32.87090895152078</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>41.35005802540001</v>
+        <v>41.35005802541172</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.81677054739759</v>
+        <v>44.81677054734472</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.94650864147655</v>
+        <v>34.94650864146487</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.07281609041537</v>
+        <v>38.07281609038956</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.09610184423533</v>
+        <v>26.09610184424465</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.57470079538464</v>
+        <v>34.57470079542103</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.04117805988655</v>
+        <v>38.04117805991203</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.17128910099074</v>
+        <v>28.17128910097814</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.29642880488677</v>
+        <v>31.29642880485392</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.60876613157985</v>
+        <v>34.6087661315753</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.07649319952794</v>
+        <v>38.07649319951975</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.20611337099087</v>
+        <v>28.20611337096995</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.58215895735801</v>
+        <v>35.58215895737802</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>44.07199996124047</v>
+        <v>44.07199996128004</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.54051861750788</v>
+        <v>47.54051861753744</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>37.66869891658987</v>
+        <v>37.6686989165942</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.06219605064921</v>
+        <v>43.06219605068072</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>46.5302370575369</v>
+        <v>46.5302370575152</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.65935658249483</v>
+        <v>36.65935658254862</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>44.03624673184695</v>
+        <v>44.03624673185764</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>52.52667712327845</v>
+        <v>52.52667712328461</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.99550973715557</v>
+        <v>55.99550973710169</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.12318935904056</v>
+        <v>46.12318935906796</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>46.55938546616824</v>
+        <v>46.55938546617451</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>50.02753374259317</v>
+        <v>50.02753374265401</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>40.15650420529841</v>
+        <v>40.15650420532298</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.53402533672705</v>
+        <v>47.53402533666112</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>56.02454161045882</v>
+        <v>56.02454161046621</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>59.49348150028874</v>
+        <v>59.49348150025839</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.62101204132089</v>
+        <v>49.62101204132909</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.78244800253622</v>
+        <v>39.78244800257637</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.2503609877628</v>
+        <v>43.25036098780931</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.37970444269407</v>
+        <v>33.37970444270875</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.75699946236302</v>
+        <v>40.75699946238939</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>49.24696553652795</v>
+        <v>49.24696553651248</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>52.71567012615507</v>
+        <v>52.71567012621782</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.84357366354656</v>
+        <v>42.84357366355885</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.73982380675751</v>
+        <v>23.73982380675989</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.21728472615818</v>
+        <v>32.21728472614682</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.68361899074765</v>
+        <v>35.68361899069446</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.81393110279225</v>
+        <v>25.8139311027412</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.94087032432073</v>
+        <v>28.94087032425798</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.1892975461573</v>
+        <v>32.18929754615798</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.6673477369006</v>
+        <v>40.66734773690653</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>44.13399586455645</v>
+        <v>44.13399586458056</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.26380743769023</v>
+        <v>34.26380743771035</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>37.39264762886182</v>
+        <v>37.39264762886864</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.68483131383915</v>
+        <v>35.68483131385756</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>44.1629674566367</v>
+        <v>44.16296745662148</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>47.62972282813701</v>
+        <v>47.62972282815317</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>37.75938538517232</v>
+        <v>37.75938538510741</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>40.88922494369702</v>
+        <v>40.88922494366782</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.91076196562953</v>
+        <v>28.91076196563589</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>37.38834804152172</v>
+        <v>37.38834804151946</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.85486817469397</v>
+        <v>40.85486817467216</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.98490364921236</v>
+        <v>30.9849036492102</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.11357557787358</v>
+        <v>34.11357557787267</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.42575099266436</v>
+        <v>37.42575099270598</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>40.89352089381158</v>
+        <v>40.89352089373497</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.02306549832959</v>
+        <v>31.02306549836245</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.39968538162635</v>
+        <v>38.39968538160121</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>46.88851253652401</v>
+        <v>46.88851253652175</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>50.35707393579869</v>
+        <v>50.3570739357414</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>40.48517880718581</v>
+        <v>40.4851788071682</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>45.87811760435979</v>
+        <v>45.87811760439505</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.34620141709811</v>
+        <v>49.34620141708016</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>39.47524542319714</v>
+        <v>39.47524542318363</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.85270976948582</v>
+        <v>46.85270976946808</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>55.34212626279459</v>
+        <v>55.34212626283951</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>58.81100159228681</v>
+        <v>58.81100159231081</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.93860583485969</v>
+        <v>48.93860583481661</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>49.37478081403251</v>
+        <v>49.3747808140638</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>52.84297188376795</v>
+        <v>52.84297188377696</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>42.97186685342474</v>
+        <v>42.97186685337018</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>50.34996210375493</v>
+        <v>50.34996210377982</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>58.83946448148978</v>
+        <v>58.8394644815198</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>62.30844707464117</v>
+        <v>62.30844707465892</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>52.4359022621074</v>
+        <v>52.43590226204341</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>42.59858132591848</v>
+        <v>42.59858132592804</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46.06653712387146</v>
+        <v>46.06653712389012</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.19580505628651</v>
+        <v>36.19580505625434</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>43.57367422562515</v>
+        <v>43.57367422561264</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>52.0626264598444</v>
+        <v>52.06262645987123</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>55.53137377192513</v>
+        <v>55.53137377191148</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.65920192639421</v>
+        <v>45.65920192637888</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>12.69358244386729</v>
+        <v>12.69358244389333</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.17144944268606</v>
+        <v>21.17144944269381</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.63722215458396</v>
+        <v>24.63722215456624</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.76894914552269</v>
+        <v>14.76894914549711</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>17.89325425298741</v>
+        <v>17.89325425297923</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.14307307484288</v>
+        <v>21.14307307483674</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.62152935861669</v>
+        <v>29.62152935863489</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.0876159317074</v>
+        <v>33.0876159317497</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>23.21884239167429</v>
+        <v>23.21884239161893</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.34504858134846</v>
+        <v>26.345048581338</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.63859026324122</v>
+        <v>24.63859026329056</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.11713250030437</v>
+        <v>33.1171325003037</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.58332631849829</v>
+        <v>36.58332631851263</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.71440375998474</v>
+        <v>26.7144037599353</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.84160935951908</v>
+        <v>29.84160935952352</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>17.86438083850752</v>
+        <v>17.86438083852116</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.34237299642533</v>
+        <v>26.34237299639124</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.80833157544354</v>
+        <v>29.80833157547175</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.93978193334625</v>
+        <v>19.9397819333168</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.06581979077453</v>
+        <v>23.06581979078545</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.37854087718336</v>
+        <v>26.37854087718497</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.84574922505875</v>
+        <v>29.84574922503671</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>19.97670860228194</v>
+        <v>19.97670860227296</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.35434878569709</v>
+        <v>27.35434878563466</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.84358190983485</v>
+        <v>35.84358190983986</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.31158183571861</v>
+        <v>39.31158183567769</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.44110131512597</v>
+        <v>29.44110131514747</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.83092452606925</v>
+        <v>34.8309245261045</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.29844678362942</v>
+        <v>38.29844678362148</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.42890557034078</v>
+        <v>28.42890557030999</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.80739025576791</v>
+        <v>35.80739025571197</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.29721273203831</v>
+        <v>44.29721273205868</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>47.76552658625241</v>
+        <v>47.76552658622548</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>37.89454544469539</v>
+        <v>37.89454544469596</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.32757120050528</v>
+        <v>38.32757120050383</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.7952007162231</v>
+        <v>41.79520071622301</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.92551046438036</v>
+        <v>31.92551046435309</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.30462607411891</v>
+        <v>39.30462607409105</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>47.79453443617236</v>
+        <v>47.79453443621058</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>51.26295555506791</v>
+        <v>51.26295555511749</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.39182535653249</v>
+        <v>41.3918253565267</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.55123149728292</v>
+        <v>31.55123149731795</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.01862574039428</v>
+        <v>35.01862574042021</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.1493084502175</v>
+        <v>25.14930845016622</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.52819796401149</v>
+        <v>32.52819796401536</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>41.01755617027845</v>
+        <v>41.0175561702598</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>44.48574200740392</v>
+        <v>44.48574200735663</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.61498477482998</v>
+        <v>34.614984774771</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.04327381587201</v>
+        <v>10.04327381588292</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.52199755495518</v>
+        <v>18.52199755492109</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.98809150704016</v>
+        <v>21.98809150698651</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.11898651209538</v>
+        <v>12.11898651211961</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15.2393083927952</v>
+        <v>15.23930839280181</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.49363251075165</v>
+        <v>18.49363251076075</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.97294557409656</v>
+        <v>26.97294557403711</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.43935341442954</v>
+        <v>30.43935341445376</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.56974783801231</v>
+        <v>20.56974783801413</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.69197086216186</v>
+        <v>23.69197086218222</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.98965681210921</v>
+        <v>21.98965681209763</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.46905582598844</v>
+        <v>30.4690558259531</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.93557092249272</v>
+        <v>33.9355709225215</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.06581630547849</v>
+        <v>24.06581630547679</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.18903883850715</v>
+        <v>27.18903883852592</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.21494147147684</v>
+        <v>15.21494147147934</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.69379036115338</v>
+        <v>23.69379036111382</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>27.16007020064131</v>
+        <v>27.16007020061311</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.29068852885558</v>
+        <v>17.29068852886719</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.41274333216194</v>
+        <v>20.41274333217685</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>23.72545249229623</v>
+        <v>23.72545249233591</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.19298210626292</v>
+        <v>27.19298210630578</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.32310961091591</v>
+        <v>17.32310961091934</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.69972770052356</v>
+        <v>24.699727700548</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33.18981865819311</v>
+        <v>33.18981865822449</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.65813987895914</v>
+        <v>36.65813987892185</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.78682745167094</v>
+        <v>26.78682745166366</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>32.1787043217541</v>
+        <v>32.17870432176513</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.64654787244441</v>
+        <v>35.64654787239723</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.7761747367474</v>
+        <v>25.77617473671898</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.15363739438443</v>
+        <v>33.1536373943776</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>41.64431774307817</v>
+        <v>41.64431774307067</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>45.11295291955806</v>
+        <v>45.11295291954146</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.24113982115178</v>
+        <v>35.24113982118998</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.6758581914357</v>
+        <v>35.67585819150836</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.14380901155911</v>
+        <v>39.14380901159402</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.27328681502842</v>
+        <v>29.27328681505265</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.65138045540804</v>
+        <v>36.65138045541736</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45.14214668749471</v>
+        <v>45.14214668751939</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>48.61088913977644</v>
+        <v>48.61088913981568</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.73892696204128</v>
+        <v>38.73892696209278</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.89901250561196</v>
+        <v>28.89901250563708</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>32.36672803507407</v>
+        <v>32.36672803511556</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.49657882886266</v>
+        <v>22.49657882887086</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.87444635619836</v>
+        <v>29.87444635622496</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>38.36466238726087</v>
+        <v>38.36466238730089</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>41.83316953981865</v>
+        <v>41.83316953985457</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.96158035683268</v>
+        <v>31.96158035688429</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.9433676505814</v>
+        <v>25.94336765058777</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.42146805691994</v>
+        <v>34.42146805687901</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>37.88798273426767</v>
+        <v>37.88798273425267</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.01801516325886</v>
+        <v>28.01801516320541</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.1371364843481</v>
+        <v>31.13713648437197</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.39322235619759</v>
+        <v>34.39322235620123</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.87191206541775</v>
+        <v>42.87191206539502</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.33874062054657</v>
+        <v>46.33874062051382</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.46827249223505</v>
+        <v>36.46827249219822</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.58929482424721</v>
+        <v>39.58929482423404</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>37.88886149857257</v>
+        <v>37.88886149856507</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.3676371648414</v>
+        <v>46.36763716485233</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49.83457296780418</v>
+        <v>49.83457296779147</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.96395581897995</v>
+        <v>39.96395581897689</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>43.08597759815806</v>
+        <v>43.0859775981375</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.11443800305454</v>
+        <v>31.11443800303476</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>39.59266357432725</v>
+        <v>39.59266357433773</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>43.05936412642414</v>
+        <v>43.05936412637367</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.18911991106165</v>
+        <v>33.18911991104425</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.30997404771535</v>
+        <v>36.30997404770944</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>39.62265708116556</v>
+        <v>39.6226570811534</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>43.09060738786921</v>
+        <v>43.09060738786432</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.21987242886542</v>
+        <v>33.21987242888952</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>40.59737995996384</v>
+        <v>40.59737995993053</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>49.086847177846</v>
+        <v>49.08684717775221</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>52.55558904400706</v>
+        <v>52.55558904390099</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>42.68341423297874</v>
+        <v>42.68341423296054</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>48.07540475981886</v>
+        <v>48.0754047598689</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.54366899255773</v>
+        <v>51.54366899255411</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.67243341698445</v>
+        <v>41.67243341703254</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>49.05078543123502</v>
+        <v>49.05078543123775</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>57.54084201922144</v>
+        <v>57.54084201919415</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.00989783027519</v>
+        <v>61.00989783024244</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.13722237239178</v>
+        <v>51.13722237234266</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>51.57217343369727</v>
+        <v>51.57217343371683</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>55.04054492749734</v>
+        <v>55.04054492750236</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>45.16916031129879</v>
+        <v>45.16916031127732</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>52.54814324423166</v>
+        <v>52.54814324419711</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>61.03828572183368</v>
+        <v>61.03828572179504</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>64.50744880046562</v>
+        <v>64.50744880038604</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>54.63462428299561</v>
+        <v>54.63462428296298</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>44.79561973296007</v>
+        <v>44.79561973288914</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>48.26375594256445</v>
+        <v>48.26375594251444</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.39274430464568</v>
+        <v>38.39274430464125</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>45.77150115643195</v>
+        <v>45.77150115641853</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>54.26109346248673</v>
+        <v>54.26109346247969</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>57.73002124761475</v>
+        <v>57.73002124763999</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.8575697130816</v>
+        <v>47.85756971305613</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.413672630669161</v>
+        <v>7.413672630696901</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>15.89138056011074</v>
+        <v>15.89138056012042</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.35699093972038</v>
+        <v>19.35699093971051</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.488980489800902</v>
+        <v>9.488980489825572</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.60909786357843</v>
+        <v>12.60909786359219</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.86318887233438</v>
+        <v>15.86318887232529</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.34148607001806</v>
+        <v>24.34148606995952</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.80741030972138</v>
+        <v>27.80741030967513</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.93889932819931</v>
+        <v>17.93889932817441</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.06091774741473</v>
+        <v>21.06091774738471</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.35867843614687</v>
+        <v>19.35867843617643</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.83706158746123</v>
+        <v>27.83706158746045</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.3030930712414</v>
+        <v>31.3030930712488</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.43443307453045</v>
+        <v>21.43443307448816</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.55745089415463</v>
+        <v>24.55745089420694</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>12.58434791348397</v>
+        <v>12.58434791345737</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.06218100641299</v>
+        <v>21.06218100637764</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.52797724925303</v>
+        <v>24.5279772492345</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.65969017595058</v>
+        <v>14.65969017591181</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.78154025114737</v>
+        <v>17.78154025110974</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.09422542668344</v>
+        <v>21.0942254267144</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.56127135905545</v>
+        <v>24.56127135907139</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.69249346623759</v>
+        <v>14.69249346621644</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.07095597842349</v>
+        <v>22.07095597844714</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.56003006456101</v>
+        <v>30.56003006458911</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.02786759137596</v>
+        <v>34.02786759145271</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.157649789417</v>
+        <v>24.15764978941711</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.54663461492728</v>
+        <v>29.54663461497551</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.01399445599272</v>
+        <v>33.01399445599366</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>23.14471597210514</v>
+        <v>23.14471597207399</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.52402301743904</v>
+        <v>30.52402301745962</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>39.01368643966615</v>
+        <v>39.01368643963161</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.48183789362728</v>
+        <v>42.48183789361729</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.6111194703469</v>
+        <v>32.61111947025925</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.04325365865227</v>
+        <v>33.04325365868174</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.51072075676441</v>
+        <v>36.5107207567816</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.64129323750209</v>
+        <v>26.64129323752756</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.02123120077091</v>
+        <v>34.02123120076192</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.5109805090761</v>
+        <v>42.51098050909557</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>45.97923922680599</v>
+        <v>45.97923922680182</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.10837174969729</v>
+        <v>36.10837174968979</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.26679290144482</v>
+        <v>26.26679290149317</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.73402472517653</v>
+        <v>29.73402472518213</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>19.86497017459197</v>
+        <v>19.86497017458583</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.24468199948351</v>
+        <v>27.24468199951352</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.73388117240922</v>
+        <v>35.73388117242242</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>39.20190460663691</v>
+        <v>39.20190460666785</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.33141010233891</v>
+        <v>29.33141010232902</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.77910561458281</v>
+        <v>16.77910561456314</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.25695628550775</v>
+        <v>25.25695628551264</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.72315724362115</v>
+        <v>28.72315724358693</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>18.85376063691879</v>
+        <v>18.85376063693881</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.97859028931388</v>
+        <v>21.97859028931467</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.22885540036696</v>
+        <v>25.22885540040505</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.70729536211508</v>
+        <v>33.70729536212179</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>37.17381019588272</v>
+        <v>37.17381019587624</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>27.30391303249807</v>
+        <v>27.30391303243351</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.43064373265528</v>
+        <v>30.43064373266017</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.72450450009084</v>
+        <v>28.72450450009062</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>37.20303042034529</v>
+        <v>37.20303042033621</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>40.66965250310604</v>
+        <v>40.6696525031006</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.79960631787676</v>
+        <v>30.79960631789258</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.92733643537633</v>
+        <v>33.92733643541681</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.95014417273718</v>
+        <v>21.95014417276389</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.42812001351377</v>
+        <v>30.42812001350286</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.89450684755958</v>
+        <v>33.89450684759232</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.02483359824547</v>
+        <v>24.02483359825367</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.15139602752037</v>
+        <v>27.15139602758676</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>30.46386082571178</v>
+        <v>30.46386082575305</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.93149745036079</v>
+        <v>33.93149745034021</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.06133328631801</v>
+        <v>24.06133328633076</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.43983250366232</v>
+        <v>31.43983250362468</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.92904968153773</v>
+        <v>39.92904968151647</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.39747789032555</v>
+        <v>43.39747789029156</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.52587380234255</v>
+        <v>33.52587380232936</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.91650359611821</v>
+        <v>38.91650359615686</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.38445414486431</v>
+        <v>42.3844541448484</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>32.51378936462095</v>
+        <v>32.5137893646337</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>39.89313312536203</v>
+        <v>39.89313312537841</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.38293966147463</v>
+        <v>48.38293966153045</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>51.85168181281957</v>
+        <v>51.85168181282719</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>41.97957707855014</v>
+        <v>41.97957707852832</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.41328219993124</v>
+        <v>42.41328219994852</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>45.88134001112416</v>
+        <v>45.88134001115053</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.01052618895898</v>
+        <v>36.01052618897901</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.39050087093471</v>
+        <v>43.39050087094915</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>51.88039329779721</v>
+        <v>51.88039329781221</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>55.3492427180482</v>
+        <v>55.34924271805547</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.47698892329432</v>
+        <v>45.47698892326385</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.63679165756506</v>
+        <v>35.63679165758462</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>39.10461418611025</v>
+        <v>39.10461418610479</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.23417334498458</v>
+        <v>29.23417334502552</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.61392187933674</v>
+        <v>36.61392187934708</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>45.1032641502231</v>
+        <v>45.10326415022197</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>48.57187827876142</v>
+        <v>48.57187827876484</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.69999746928668</v>
+        <v>38.69999746931214</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.31307807749689</v>
+        <v>7.313078077531436</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>15.79106850829302</v>
+        <v>15.79106850830747</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.25688726435973</v>
+        <v>19.25688726439191</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.388388174567986</v>
+        <v>9.388388174516486</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>12.50631937116331</v>
+        <v>12.50631937115592</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.76270113776996</v>
+        <v>15.76270113782451</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.24128087099032</v>
+        <v>24.24128087105569</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.70741349814605</v>
+        <v>27.70741349813002</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.83841386320619</v>
+        <v>17.83841386328532</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.95824606892614</v>
+        <v>20.95824606893739</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.25830419597325</v>
+        <v>19.25830419598608</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.7369698908506</v>
+        <v>27.73696989086471</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.20320976664156</v>
+        <v>31.20320976658427</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.33406111079477</v>
+        <v>21.33406111080445</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.45489275216762</v>
+        <v>24.45489275221048</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.48396827037133</v>
+        <v>12.48396827037018</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.96208387564611</v>
+        <v>20.96208387563646</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.42808850482169</v>
+        <v>24.42808850477248</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.55931277856454</v>
+        <v>14.55931277855512</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>17.67897674978278</v>
+        <v>17.67897674977801</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.99172973057299</v>
+        <v>20.99172973056742</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.45898407853716</v>
+        <v>24.45898407848157</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.5897175918217</v>
+        <v>14.58971759176442</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.97071137893912</v>
+        <v>21.97071137892092</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.46006831220644</v>
+        <v>30.46006831219461</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.92811430188272</v>
+        <v>33.92811430194093</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.05740773106361</v>
+        <v>24.05740773105929</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.44424576661184</v>
+        <v>29.44424576667812</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.91181403399785</v>
+        <v>32.91181403397955</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.04204694298161</v>
+        <v>23.04204694294251</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>30.42388530346883</v>
+        <v>30.42388530348098</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>38.91383160640566</v>
+        <v>38.91383160640645</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>42.38219153424301</v>
+        <v>42.38219153423153</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>32.51098432861904</v>
+        <v>32.5109843285963</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.94097835430875</v>
+        <v>32.94097835432093</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>36.40865388354904</v>
+        <v>36.40865388354531</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.53873775148427</v>
+        <v>26.53873775147894</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.9212070373346</v>
+        <v>33.92120703733938</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.41123923433309</v>
+        <v>42.41123923436675</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>45.87970643044849</v>
+        <v>45.87970643049034</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.00835016534145</v>
+        <v>36.00835016530565</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.16451220726321</v>
+        <v>26.16451220727674</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.63195245625729</v>
+        <v>29.63195245625263</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.76240929883436</v>
+        <v>19.76240929882619</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.14465242492961</v>
+        <v>27.14465242499235</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.63413445595665</v>
+        <v>35.63413445603839</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.10236636296644</v>
+        <v>39.10236636294996</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.23138307648995</v>
+        <v>29.23138307650746</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1.719385810656171</v>
+        <v>1.719385810666516</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>10.19710756176172</v>
+        <v>10.19710756176661</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.66265947526662</v>
+        <v>13.6626594752474</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>3.794887662353169</v>
+        <v>3.794887662371359</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>6.913523572909433</v>
+        <v>6.913523572882944</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.16860080729362</v>
+        <v>10.16860080728805</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.64691183906562</v>
+        <v>18.64691183907414</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.11277761029405</v>
+        <v>22.11277761032395</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.24450527423337</v>
+        <v>12.24450527422315</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.3650421233854</v>
+        <v>15.36504212337255</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.66409024253877</v>
+        <v>13.66409024254423</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.14248723259544</v>
+        <v>22.14248723254395</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.60846024873609</v>
+        <v>25.60846024872826</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.74003889685336</v>
+        <v>15.74003889679822</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.86157513885394</v>
+        <v>18.86157513884475</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>6.890101078606257</v>
+        <v>6.890101078634906</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>15.36794799956972</v>
+        <v>15.36794799957165</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.83368577938274</v>
+        <v>18.83368577935966</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.965637340764637</v>
+        <v>8.965637340809216</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>12.08600595499755</v>
+        <v>12.08600595501063</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.39866493393836</v>
+        <v>15.39866493395711</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.86565237937818</v>
+        <v>18.86565237941877</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.997113170920635</v>
+        <v>8.997113170923363</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.37778080349658</v>
+        <v>16.37778080345371</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.86686857408818</v>
+        <v>24.86686857407044</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.33464763602074</v>
+        <v>28.33464763595116</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.4646683824598</v>
+        <v>18.46466838241978</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.85077280130113</v>
+        <v>23.85077280132557</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.31807415276139</v>
+        <v>27.31807415274945</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>17.44903436187295</v>
+        <v>17.44903436187841</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.83054653542515</v>
+        <v>24.83054653547187</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.32022365440643</v>
+        <v>33.32022365441177</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.78831664101771</v>
+        <v>36.78831664101396</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.91783677473018</v>
+        <v>26.91783677473564</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.34739171759248</v>
+        <v>27.34739171755917</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.81480032721584</v>
+        <v>30.81480032718526</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.94561150033913</v>
+        <v>20.94561150033699</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.32775457628974</v>
+        <v>28.3277545762711</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.81751758590567</v>
+        <v>36.81751758587838</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>40.28571783696875</v>
+        <v>40.28571783697421</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.41508891625585</v>
+        <v>30.41508891622561</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.57127240931552</v>
+        <v>20.57127240932542</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.03844574908819</v>
+        <v>24.03844574910946</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.16962988068935</v>
+        <v>14.16962988070311</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.55154680639665</v>
+        <v>21.55154680641518</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.04075967008051</v>
+        <v>30.04075967005334</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.50872464215657</v>
+        <v>33.50872464215168</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.63846868403017</v>
+        <v>23.63846868405108</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>15.34037019040944</v>
+        <v>15.34037019043217</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.81906856647208</v>
+        <v>23.81906856643253</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.28514717448467</v>
+        <v>27.28514717447832</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.41608234606372</v>
+        <v>17.41608234604794</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.53455021747205</v>
+        <v>20.53455021749503</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.79094213996877</v>
+        <v>23.79094213996151</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.2702298466105</v>
+        <v>32.2702298466429</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.73662234529399</v>
+        <v>35.73662234531275</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.86705693155888</v>
+        <v>25.86705693156707</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.98742595530634</v>
+        <v>28.98742595528396</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.28698442723162</v>
+        <v>27.28698442723095</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.76635808586195</v>
+        <v>35.76635808591482</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.2328578413452</v>
+        <v>39.23285784135761</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.36314338564703</v>
+        <v>29.36314338563806</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.48451193156678</v>
+        <v>32.48451193160192</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>20.51206007914704</v>
+        <v>20.51206007913317</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.99088360742194</v>
+        <v>28.99088360736237</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.4571481036433</v>
+        <v>32.45714810361692</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.58780659679069</v>
+        <v>22.58780659677775</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.70800740193688</v>
+        <v>25.70800740196452</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.02066896952309</v>
+        <v>29.02066896948819</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.48818323336199</v>
+        <v>32.48818323335028</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.61835093596003</v>
+        <v>22.61835093599347</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.99604068354039</v>
+        <v>29.99604068352118</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.48610630038471</v>
+        <v>38.48610630040336</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.95441220178751</v>
+        <v>41.95441220179388</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>32.08313990718948</v>
+        <v>32.08313990719994</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>37.47413407370046</v>
+        <v>37.47413407373332</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.94196227678227</v>
+        <v>40.94196227677511</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.07162933467929</v>
+        <v>31.0716293347018</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.45016367796405</v>
+        <v>38.45016367798451</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.94081869249006</v>
+        <v>46.94081869254622</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.40943855184863</v>
+        <v>50.40943855186023</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.53766558209482</v>
+        <v>40.53766558213211</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.97130594513256</v>
+        <v>40.97130594518521</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.43924141830231</v>
+        <v>44.43924141833632</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.56875941396958</v>
+        <v>34.56875941399745</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.94792474626608</v>
+        <v>41.94792474627722</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.43866564555744</v>
+        <v>50.43866564563488</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>53.90739278134995</v>
+        <v>53.9073927814383</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.03547073098124</v>
+        <v>44.03547073096544</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.19425122959945</v>
+        <v>34.19425122963549</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.6619514099042</v>
+        <v>37.66195140994206</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.79184239953782</v>
+        <v>27.79184239960605</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.17078160131627</v>
+        <v>35.17078160128103</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.66097229320065</v>
+        <v>43.66097229323794</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.1294641271519</v>
+        <v>47.12946412719783</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.25791507482656</v>
+        <v>37.25791507491638</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>18.07925563052844</v>
+        <v>18.07925563050764</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.5570789484404</v>
+        <v>26.55707894843132</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.02318914443772</v>
+        <v>30.02318914440317</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.15402744361068</v>
+        <v>20.15402744359442</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.2714764190654</v>
+        <v>23.2714764190812</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.52904317128895</v>
+        <v>26.52904317130443</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.00745577998637</v>
+        <v>35.0074557800132</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.473879850411</v>
+        <v>38.47387985043101</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.60421759709633</v>
+        <v>28.60421759707281</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.72356760737417</v>
+        <v>31.72356760739611</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.02464605507813</v>
+        <v>30.02464605504574</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.50314462494725</v>
+        <v>38.50314462496103</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.96967594317947</v>
+        <v>41.96967594316506</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.099864671626</v>
+        <v>32.09986467160417</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.22021412478268</v>
+        <v>35.22021412479712</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.25018304409144</v>
+        <v>23.25018304406746</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.72813153742317</v>
+        <v>31.72813153740865</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.1944276062115</v>
+        <v>35.19442760617878</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.32498927123331</v>
+        <v>25.32498927125673</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.44417102846109</v>
+        <v>28.44417102842744</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.75671972199309</v>
+        <v>31.75671972202174</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.22426549203812</v>
+        <v>35.22426549207541</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.35433644660825</v>
+        <v>25.35433644664383</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.73336287493479</v>
+        <v>32.73336287489841</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>41.22255283120084</v>
+        <v>41.22255283118766</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.69089021148265</v>
+        <v>44.69089021152404</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.81952120291088</v>
+        <v>34.81952120290416</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.20940023675808</v>
+        <v>40.20940023676093</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.67725992974379</v>
+        <v>43.67725992976529</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.80683027231289</v>
+        <v>33.80683027229767</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>41.18670125030963</v>
+        <v>41.18670125029451</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>49.67648056465949</v>
+        <v>49.67648056465541</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>53.1451318865489</v>
+        <v>53.14513188654619</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>43.27326223534752</v>
+        <v>43.27326223533536</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.70613265824351</v>
+        <v>43.70613265829275</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.17409961244368</v>
+        <v>47.17409961245972</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.30352091666121</v>
+        <v>37.30352091663676</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.68402281128075</v>
+        <v>44.68402281128667</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.17388801912561</v>
+        <v>53.17388801914166</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.64264660850089</v>
+        <v>56.64264660853605</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.77062790039236</v>
+        <v>46.77062790038895</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.92953942953039</v>
+        <v>36.92953942948936</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.39727110064444</v>
+        <v>40.39727110066207</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.52706538704746</v>
+        <v>30.52706538699393</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>37.90734112478312</v>
+        <v>37.90734112475129</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>46.39665617934441</v>
+        <v>46.39665617934624</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.86517947666142</v>
+        <v>49.86517947658503</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>39.99353375470911</v>
+        <v>39.99353375469638</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.62327174057268</v>
+        <v>22.62327174057803</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.10210826548228</v>
+        <v>31.10210826549467</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.56858813613899</v>
+        <v>34.5685881361573</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.69858799847214</v>
+        <v>24.69858799844304</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.81876089334343</v>
+        <v>27.8187608933789</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.07403315541787</v>
+        <v>31.07403315544357</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.55345902144256</v>
+        <v>39.5534590214047</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>43.02025279198289</v>
+        <v>43.02025279199596</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.14975205557406</v>
+        <v>33.14975205552813</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.27182615802865</v>
+        <v>36.27182615800772</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.57015274923865</v>
+        <v>34.57015274923821</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.04966456956719</v>
+        <v>43.04966456956526</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>46.51656559874083</v>
+        <v>46.51656559874572</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.64591581887584</v>
+        <v>36.64591581883401</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.76898946726234</v>
+        <v>39.76898946725563</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.79513416532274</v>
+        <v>27.79513416533229</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.27409584548673</v>
+        <v>36.27409584546127</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.74076160924211</v>
+        <v>39.74076160923347</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.87048478622111</v>
+        <v>29.8704847862393</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.99239066907689</v>
+        <v>32.99239066911998</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.30501805607421</v>
+        <v>36.30501805606398</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.77293363634292</v>
+        <v>39.77293363632086</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.90216599324977</v>
+        <v>29.90216599322839</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>37.27870804066017</v>
+        <v>37.27870804065697</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>45.76891217296519</v>
+        <v>45.76891217289585</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>49.23761937111453</v>
+        <v>49.23761937109384</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.36541180028906</v>
+        <v>39.36541180027678</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>44.75867269800161</v>
+        <v>44.75867269798888</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.22690222654179</v>
+        <v>48.22690222653497</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.35563392532993</v>
+        <v>38.35563392530583</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.7330205469326</v>
+        <v>45.7330205469576</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.22381408763653</v>
+        <v>54.2238140875857</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>57.69283525301439</v>
+        <v>57.69283525308042</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.82012699365898</v>
+        <v>47.82012699360703</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.25592190419255</v>
+        <v>48.25592190415539</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.72425870463648</v>
+        <v>51.72425870460795</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.85284133992379</v>
+        <v>41.85284133990185</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>49.23085895376132</v>
+        <v>49.2308589538077</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57.72173838110884</v>
+        <v>57.7217383810976</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>61.19086682485013</v>
+        <v>61.19086682482388</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>51.31800948323552</v>
+        <v>51.31800948323927</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.4787729104802</v>
+        <v>41.47877291047292</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>44.94687441191321</v>
+        <v>44.9468744119123</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.07583004925308</v>
+        <v>35.07583004924853</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>42.45362155327521</v>
+        <v>42.45362155327202</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>50.943950763938</v>
+        <v>50.94395076393504</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>54.41284389965437</v>
+        <v>54.41284389962367</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>44.54035956433716</v>
+        <v>44.54035956433625</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>19.85012443878242</v>
+        <v>19.85012443886644</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.32836782558731</v>
+        <v>28.32836782555469</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.79447366512365</v>
+        <v>31.79447366509694</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.92534057309506</v>
+        <v>21.92534057312373</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.04606153905105</v>
+        <v>25.0460615391013</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.30061338198426</v>
+        <v>28.3006133819979</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.77944608394105</v>
+        <v>36.77944608396198</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.24586580882546</v>
+        <v>40.24586580879637</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.37623213859717</v>
+        <v>30.37623213856909</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.49885424063277</v>
+        <v>33.49885424064619</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.79667027383997</v>
+        <v>31.79667027387227</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.27558892439682</v>
+        <v>40.27558892439058</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>43.74211590494959</v>
+        <v>43.74211590495836</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.87233319218611</v>
+        <v>33.87233319218976</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.99595480081468</v>
+        <v>36.9959548007998</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.02192158967059</v>
+        <v>25.02192158966968</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.50029011965142</v>
+        <v>33.50029011969554</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.96658184686492</v>
+        <v>36.96658184685993</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.09717207262825</v>
+        <v>27.09717207263427</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.21962596008272</v>
+        <v>30.21962596004906</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.53172512074922</v>
+        <v>33.53172512071921</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.99926660046173</v>
+        <v>36.99926660051766</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.12936600967927</v>
+        <v>27.12936600967495</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.50569108780196</v>
+        <v>34.5056910878073</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>42.99530151570489</v>
+        <v>42.99530151565748</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>46.46363458594815</v>
+        <v>46.46363458594121</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.59229411444434</v>
+        <v>36.59229411443069</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.98510717378176</v>
+        <v>41.98510717376073</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.45296258702147</v>
+        <v>45.45296258707138</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.58256135885194</v>
+        <v>35.58256135887286</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.95973100371118</v>
+        <v>42.95973100372107</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.44993081393286</v>
+        <v>51.44993081392467</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>54.91857783677997</v>
+        <v>54.91857783675814</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>45.04673669776641</v>
+        <v>45.04673669773913</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.48229362510504</v>
+        <v>45.48229362509743</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.95025630736448</v>
+        <v>48.9502563073446</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.07970601650268</v>
+        <v>39.07970601648621</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>46.45750663929703</v>
+        <v>46.45750663930021</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.94779233045875</v>
+        <v>54.94779233045056</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>58.4165466284524</v>
+        <v>58.41654662846877</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.54455640847294</v>
+        <v>48.54455640845759</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.70541460869367</v>
+        <v>38.70541460873506</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>42.17314200397481</v>
+        <v>42.17314200401939</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.30296469691816</v>
+        <v>32.30296469691645</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.68053920058401</v>
+        <v>39.680539200613</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>48.17027469518805</v>
+        <v>48.17027469522147</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>51.63879369708072</v>
+        <v>51.63879369711142</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.76717646467342</v>
+        <v>41.76717646473254</v>
       </c>
     </row>
     <row r="818">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.15634087892264</v>
+        <v>26.156340878909</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.62268326359814</v>
+        <v>29.62268326360996</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.75289286495671</v>
+        <v>19.75289286495035</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.8717914628464</v>
+        <v>22.87179146290324</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.12840317289459</v>
+        <v>26.12840317293142</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.60746436030019</v>
+        <v>34.60746436030963</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.07412064138823</v>
+        <v>38.07412064137174</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.20382965073713</v>
+        <v>28.20382965077351</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.32462939684113</v>
+        <v>31.32462939683499</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.62431735619246</v>
+        <v>29.62431735623647</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>38.10346450261007</v>
+        <v>38.10346450262099</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>41.57022803856474</v>
+        <v>41.57022803859658</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.69978801506434</v>
+        <v>31.69978801507867</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>34.82158726564469</v>
+        <v>34.82158726563004</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.84927988253926</v>
+        <v>22.84927988256324</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.32787692129677</v>
+        <v>31.32787692129404</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.79440519123018</v>
+        <v>34.79440519120471</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.9243381308441</v>
+        <v>24.92433813084877</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.04496962787909</v>
+        <v>28.04496962791558</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.3576837481769</v>
+        <v>31.35768374821237</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.82546181284352</v>
+        <v>34.82546181279486</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.95490398041661</v>
+        <v>24.95490398041616</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.33267589905666</v>
+        <v>32.33267589907246</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.82251511359642</v>
+        <v>40.82251511362552</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.2910848069048</v>
+        <v>44.29108480697119</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.41908701778373</v>
+        <v>34.41908701775883</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.81111103592288</v>
+        <v>39.81111103592016</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.2792030452621</v>
+        <v>43.27920304522254</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.40814456144295</v>
+        <v>33.40814456148706</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>40.78676106801803</v>
+        <v>40.78676106802167</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.27718966756361</v>
+        <v>49.27718966756441</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.74607332432839</v>
+        <v>52.74607332437193</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.87357485355647</v>
+        <v>42.87357485354647</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>43.30815480651315</v>
+        <v>43.30815480651044</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>46.77635408418271</v>
+        <v>46.77635408420182</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.90514654698816</v>
+        <v>36.90514654700259</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.2843940216513</v>
+        <v>44.28439402158674</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.77490851253604</v>
+        <v>52.77490851249238</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.24389944395168</v>
+        <v>56.2438994439867</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.37125190147125</v>
+        <v>46.37125190143306</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.53098700562504</v>
+        <v>36.53098700563688</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>39.99895098343149</v>
+        <v>39.99895098345333</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.12811645472205</v>
+        <v>30.12811645469034</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>37.50713777893873</v>
+        <v>37.50713777896284</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.99710208556325</v>
+        <v>45.99710208556586</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>49.46585770804176</v>
+        <v>49.46585770804165</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.59358317789884</v>
+        <v>39.59358317787065</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>11.68929731358103</v>
+        <v>11.68929731358873</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.16719894966551</v>
+        <v>20.16719894965869</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.6329707959782</v>
+        <v>23.63297079592954</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.76460537223429</v>
+        <v>13.76460537223293</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.8867633764337</v>
+        <v>16.88676337642006</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.13927301888456</v>
+        <v>20.13927301885773</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.61776394362163</v>
+        <v>28.61776394360867</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.08384966045445</v>
+        <v>32.08384966043831</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.21498368359965</v>
+        <v>22.21498368359101</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.33904280920756</v>
+        <v>25.33904280925577</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.63504991201092</v>
+        <v>23.63504991200251</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.11362678500107</v>
+        <v>32.11362678500436</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.57981975136088</v>
+        <v>35.57981975133371</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.71080474396853</v>
+        <v>25.71080474398264</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.83586332719432</v>
+        <v>28.83586332717704</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.86053898162562</v>
+        <v>16.86053898161742</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.33856576533561</v>
+        <v>25.33856576528195</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.80452348612142</v>
+        <v>28.80452348610414</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.93588140715951</v>
+        <v>18.93588140714677</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.05977223736223</v>
+        <v>22.05977223738861</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.37208485231798</v>
+        <v>25.37208485233709</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.83929232388612</v>
+        <v>28.8392923238161</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.97015937474287</v>
+        <v>18.97015937477071</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.34732995835427</v>
+        <v>26.34732995830651</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.83659807906647</v>
+        <v>34.83659807910137</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.30459713674932</v>
+        <v>38.30459713673329</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.43402427940232</v>
+        <v>28.43402427941367</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>33.82495360952071</v>
+        <v>33.82495360955699</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.29247500005823</v>
+        <v>37.29247500005039</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.42284143833363</v>
+        <v>27.42284143835921</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.80085657489604</v>
+        <v>34.80085657490364</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.29071405136832</v>
+        <v>43.29071405142539</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>46.75902704689391</v>
+        <v>46.75902704690005</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.88795354627893</v>
+        <v>36.88795354627141</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.32186001891063</v>
+        <v>37.32186001894578</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.78948867196591</v>
+        <v>40.78948867194057</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.91970605961126</v>
+        <v>30.91970605961365</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.29835214776462</v>
+        <v>38.29835214776553</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>46.78829550513257</v>
+        <v>46.78829550516647</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.25671576959741</v>
+        <v>50.2567157695872</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>40.38549319987785</v>
+        <v>40.38549319985977</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.54521878413693</v>
+        <v>30.5452187841092</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.01261215802646</v>
+        <v>34.01261215804285</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>24.14320251962571</v>
+        <v>24.1432025196472</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.52162248011702</v>
+        <v>31.52162248014884</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>40.01101567141361</v>
+        <v>40.01101567142066</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.47920064774009</v>
+        <v>43.47920064774123</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.60835105593163</v>
+        <v>33.6083510559116</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.15294879972965</v>
+        <v>18.1529487997741</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.63123870311916</v>
+        <v>26.63123870318964</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.09728260846055</v>
+        <v>30.09728260847783</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.22830725006583</v>
+        <v>20.22830725005628</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>23.34848427430506</v>
+        <v>23.34848427430858</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.60341250553646</v>
+        <v>26.60341250551782</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>35.08229172272708</v>
+        <v>35.08229172268855</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.54864951206596</v>
+        <v>38.54864951201559</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.67917357775232</v>
+        <v>28.67917357771457</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.80125173895751</v>
+        <v>31.80125173892555</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.09946530190989</v>
+        <v>30.09946530192514</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.5784304667041</v>
+        <v>38.57843046669444</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.04489551155398</v>
+        <v>42.04489551152613</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>32.1752705349173</v>
+        <v>32.17527053491627</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>35.29834820172169</v>
+        <v>35.29834820174965</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.3247316235224</v>
+        <v>23.32473162349807</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.80314666943246</v>
+        <v>31.80314666941155</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.26937646144329</v>
+        <v>35.26937646144331</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.40012442223594</v>
+        <v>25.40012442222105</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.52203436079748</v>
+        <v>28.52203436083273</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>31.83419435199328</v>
+        <v>31.83419435205524</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.3016738887515</v>
+        <v>35.30167388878663</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.43193103666018</v>
+        <v>25.43193103660038</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.80827550258213</v>
+        <v>32.80827550256381</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>41.29793241410109</v>
+        <v>41.29793241411314</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>44.76620354506351</v>
+        <v>44.76620354499826</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>34.89502080444272</v>
+        <v>34.89502080440042</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>40.28755116660046</v>
+        <v>40.28755116662092</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>43.75534463600685</v>
+        <v>43.75534463593409</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>33.88510114834427</v>
+        <v>33.8851011483652</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>41.2622901811738</v>
+        <v>41.26229018114434</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>49.75253647372336</v>
+        <v>49.75253647372563</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.22112155611365</v>
+        <v>53.22112155615503</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>43.34943814987887</v>
+        <v>43.34943814991025</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>43.78473351989947</v>
+        <v>43.78473351989141</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>47.25263425767258</v>
+        <v>47.25263425763041</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>37.38224170787557</v>
+        <v>37.38224170784341</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>44.76006171873424</v>
+        <v>44.76006171871615</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>53.25039389159216</v>
+        <v>53.25039389156942</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>56.71908624886843</v>
+        <v>56.71908624882114</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>46.84725376194853</v>
+        <v>46.8472537619017</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>37.00786950429629</v>
+        <v>37.0078695042632</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.47553495587963</v>
+        <v>40.47553495586883</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.60551538820541</v>
+        <v>30.60551538818587</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>37.98310928090451</v>
+        <v>37.98310928087391</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>46.47289125803342</v>
+        <v>46.47289125806798</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.94134831991266</v>
+        <v>49.94134831990765</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>40.06988881927374</v>
+        <v>40.06988881922963</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.22334676958209</v>
+        <v>22.2233467696196</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.70132765942432</v>
+        <v>30.70132765939328</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.16746708326442</v>
+        <v>34.1674670833216</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.29827179497072</v>
+        <v>24.29827179497095</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.41837206412979</v>
+        <v>27.41837206414343</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.67333294146332</v>
+        <v>30.67333294150743</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>39.15190313509809</v>
+        <v>39.15190313507046</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.6183564342982</v>
+        <v>42.61835643431514</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>32.74866058835097</v>
+        <v>32.74866058836427</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.87066190689593</v>
+        <v>35.87066190687671</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>34.16906984360477</v>
+        <v>34.16906984359056</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>42.64772598992223</v>
+        <v>42.64772598987722</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>46.11428653907588</v>
+        <v>46.11428653901087</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.24444166423095</v>
+        <v>36.24444166424291</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.36744245033433</v>
+        <v>39.36744245037254</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>27.39457274960102</v>
+        <v>27.39457274959396</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.8726787934662</v>
+        <v>35.87267879343791</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.33900409400086</v>
+        <v>39.33900409399167</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.46953214925181</v>
+        <v>29.46953214915825</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>32.59136527436731</v>
+        <v>32.59136527438869</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.90377303229148</v>
+        <v>35.90377303226044</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>39.37134808023607</v>
+        <v>39.37134808023232</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.50138534382219</v>
+        <v>29.50138534379627</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.87827738162749</v>
+        <v>36.87827738169387</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>45.36762508072002</v>
+        <v>45.36762508073173</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>48.83599170066305</v>
+        <v>48.83599170067522</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>38.96458910227354</v>
+        <v>38.96458910224012</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.3566522145989</v>
+        <v>44.35665221459254</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>47.82454118650053</v>
+        <v>47.8245411864878</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>37.95407783293323</v>
+        <v>37.9540778329337</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>45.33181441251279</v>
+        <v>45.33181441252507</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>53.82175148243055</v>
+        <v>53.82175148243908</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>57.29043204520718</v>
+        <v>57.29043204521388</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>47.41852879878262</v>
+        <v>47.41852879876694</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>47.85351865364319</v>
+        <v>47.85351865357806</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>51.32151488849231</v>
+        <v>51.32151488850267</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>41.45090248614273</v>
+        <v>41.45090248613831</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>48.82927001036624</v>
+        <v>48.82927001039011</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>57.31929296548837</v>
+        <v>57.31929296548098</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>60.78808079756849</v>
+        <v>60.78808079758202</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>50.91602848392281</v>
+        <v>50.91602848388928</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.07689131992463</v>
+        <v>41.07689131991874</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>44.54465227265126</v>
+        <v>44.54465227266855</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>34.6744128451402</v>
+        <v>34.67441284511396</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>42.05255424406403</v>
+        <v>42.05255424404526</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>50.54202702010364</v>
+        <v>50.5420270201183</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>54.0105795610559</v>
+        <v>54.01057956109876</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>44.1389002266697</v>
+        <v>44.13890022667379</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>18.30004295886986</v>
+        <v>18.30004295888168</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>26.77848308301721</v>
+        <v>26.77848308304302</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>30.24482455365145</v>
+        <v>30.24482455367953</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>20.37505323726995</v>
+        <v>20.37505323722697</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>23.49385258170388</v>
+        <v>23.49385258166421</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.75057158524434</v>
+        <v>26.75057158524752</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>35.22960102132874</v>
+        <v>35.22960102130509</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>38.69625638631778</v>
+        <v>38.69625638632551</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>28.82598447929848</v>
+        <v>28.82598447933622</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>31.94668495860792</v>
+        <v>31.94668495859701</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>30.24649009353133</v>
+        <v>30.24649009350075</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>38.72560548594785</v>
+        <v>38.72560548594331</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>42.19236810571166</v>
+        <v>42.19236810572622</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>32.32194716498216</v>
+        <v>32.3219471650505</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>35.44364714504945</v>
+        <v>35.44364714509323</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>23.47147475281033</v>
+        <v>23.47147475283989</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>31.9500400416805</v>
+        <v>31.95004004170871</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>35.41656739661904</v>
+        <v>35.41656739660723</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>25.5465194170831</v>
+        <v>25.54651941708141</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>28.6670516547075</v>
+        <v>28.66705165474888</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>31.97971309575838</v>
+        <v>31.97971309572836</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>35.44749023509554</v>
+        <v>35.44749023511736</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>25.57695149581712</v>
+        <v>25.5769514957289</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>32.95411148863149</v>
+        <v>32.95411148865741</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>41.44391891456754</v>
+        <v>41.44391891459289</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>44.91248766731106</v>
+        <v>44.91248766730686</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>35.04050900411992</v>
+        <v>35.04050900406715</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>40.43313482048115</v>
+        <v>40.43313482046569</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>43.90122590287064</v>
+        <v>43.9012259028429</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.03018651344239</v>
+        <v>34.03018651338738</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>41.40819109053648</v>
+        <v>41.40819109059662</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>49.89858789575479</v>
+        <v>49.89858789576162</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>53.3674706102635</v>
+        <v>53.3674706102776</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>43.49499126628927</v>
+        <v>43.49499126625926</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>43.93018290628232</v>
+        <v>43.93018290627153</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>47.39838125643963</v>
+        <v>47.39838125645658</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>37.52719281339773</v>
+        <v>37.52719281340286</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>44.90582835580305</v>
+        <v>44.90582835578372</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>53.39631105001268</v>
+        <v>53.39631105002905</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>56.86530103869068</v>
+        <v>56.86530103872206</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>46.99267262255278</v>
+        <v>46.99267262257644</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>37.15303725693254</v>
+        <v>37.15303725693754</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>40.62100030860872</v>
+        <v>40.62100030857916</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>30.75018487200577</v>
+        <v>30.75018487197804</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>38.12859426089044</v>
+        <v>38.12859426093865</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>46.61852677461507</v>
+        <v>46.61852677462416</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>50.08728145582796</v>
+        <v>50.08728145580249</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>40.21502605019584</v>
+        <v>40.21502605018174</v>
       </c>
     </row>
   </sheetData>
